--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.028147</v>
+        <v>0.35379</v>
       </c>
       <c r="H2">
-        <v>0.084441</v>
+        <v>1.06137</v>
       </c>
       <c r="I2">
-        <v>0.0007347845853173871</v>
+        <v>0.008539219707589354</v>
       </c>
       <c r="J2">
-        <v>0.0007347845853173869</v>
+        <v>0.008539219707589352</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N2">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O2">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P2">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q2">
-        <v>0.4876446170633334</v>
+        <v>2.68163845527</v>
       </c>
       <c r="R2">
-        <v>4.38880155357</v>
+        <v>24.13474609743</v>
       </c>
       <c r="S2">
-        <v>0.0001330966339756277</v>
+        <v>0.0005860592676740767</v>
       </c>
       <c r="T2">
-        <v>0.0001330966339756277</v>
+        <v>0.0005860592676740766</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.028147</v>
+        <v>0.35379</v>
       </c>
       <c r="H3">
-        <v>0.084441</v>
+        <v>1.06137</v>
       </c>
       <c r="I3">
-        <v>0.0007347845853173871</v>
+        <v>0.008539219707589354</v>
       </c>
       <c r="J3">
-        <v>0.0007347845853173869</v>
+        <v>0.008539219707589352</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>19.771439</v>
       </c>
       <c r="O3">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P3">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q3">
-        <v>0.1855022311776667</v>
+        <v>2.331645801270001</v>
       </c>
       <c r="R3">
-        <v>1.669520080599</v>
+        <v>20.98481221143</v>
       </c>
       <c r="S3">
-        <v>5.063056517141782E-05</v>
+        <v>0.0005095700459106251</v>
       </c>
       <c r="T3">
-        <v>5.063056517141781E-05</v>
+        <v>0.0005095700459106251</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.028147</v>
+        <v>0.35379</v>
       </c>
       <c r="H4">
-        <v>0.084441</v>
+        <v>1.06137</v>
       </c>
       <c r="I4">
-        <v>0.0007347845853173871</v>
+        <v>0.008539219707589354</v>
       </c>
       <c r="J4">
-        <v>0.0007347845853173869</v>
+        <v>0.008539219707589352</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N4">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O4">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P4">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q4">
-        <v>2.015855648979667</v>
+        <v>33.99282495333</v>
       </c>
       <c r="R4">
-        <v>18.142700840817</v>
+        <v>305.93542457997</v>
       </c>
       <c r="S4">
-        <v>0.0005502031439939017</v>
+        <v>0.007428969426945302</v>
       </c>
       <c r="T4">
-        <v>0.0005502031439939015</v>
+        <v>0.007428969426945301</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.028147</v>
+        <v>0.35379</v>
       </c>
       <c r="H5">
-        <v>0.084441</v>
+        <v>1.06137</v>
       </c>
       <c r="I5">
-        <v>0.0007347845853173871</v>
+        <v>0.008539219707589354</v>
       </c>
       <c r="J5">
-        <v>0.0007347845853173869</v>
+        <v>0.008539219707589352</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N5">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O5">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P5">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q5">
-        <v>0.003129805665</v>
+        <v>0.06690133521000001</v>
       </c>
       <c r="R5">
-        <v>0.028168250985</v>
+        <v>0.6021120168900002</v>
       </c>
       <c r="S5">
-        <v>8.542421764398337E-07</v>
+        <v>1.462096705935061E-05</v>
       </c>
       <c r="T5">
-        <v>8.542421764398334E-07</v>
+        <v>1.462096705935061E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.97491766666667</v>
+        <v>36.97491766666666</v>
       </c>
       <c r="H6">
         <v>110.924753</v>
       </c>
       <c r="I6">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408624</v>
       </c>
       <c r="J6">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408623</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N6">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O6">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P6">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q6">
-        <v>640.5876138313123</v>
+        <v>280.2604966092185</v>
       </c>
       <c r="R6">
-        <v>5765.288524481811</v>
+        <v>2522.344469482967</v>
       </c>
       <c r="S6">
-        <v>0.1748405543382707</v>
+        <v>0.06124959204623065</v>
       </c>
       <c r="T6">
-        <v>0.1748405543382706</v>
+        <v>0.06124959204623064</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>36.97491766666667</v>
+        <v>36.97491766666666</v>
       </c>
       <c r="H7">
         <v>110.924753</v>
       </c>
       <c r="I7">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408624</v>
       </c>
       <c r="J7">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408623</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>19.771439</v>
       </c>
       <c r="O7">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P7">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q7">
         <v>243.6824430588408</v>
@@ -883,10 +883,10 @@
         <v>2193.141987529567</v>
       </c>
       <c r="S7">
-        <v>0.06651014241766351</v>
+        <v>0.05325563326534078</v>
       </c>
       <c r="T7">
-        <v>0.0665101424176635</v>
+        <v>0.05325563326534078</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>36.97491766666667</v>
+        <v>36.97491766666666</v>
       </c>
       <c r="H8">
         <v>110.924753</v>
       </c>
       <c r="I8">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408624</v>
       </c>
       <c r="J8">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408623</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N8">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O8">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P8">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q8">
-        <v>2648.100921906707</v>
+        <v>3552.621340079676</v>
       </c>
       <c r="R8">
-        <v>23832.90829716036</v>
+        <v>31973.59206071709</v>
       </c>
       <c r="S8">
-        <v>0.7227667584153075</v>
+        <v>0.7764084143403892</v>
       </c>
       <c r="T8">
-        <v>0.7227667584153072</v>
+        <v>0.7764084143403892</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>36.97491766666667</v>
+        <v>36.97491766666666</v>
       </c>
       <c r="H9">
         <v>110.924753</v>
       </c>
       <c r="I9">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408624</v>
       </c>
       <c r="J9">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408623</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N9">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O9">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P9">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q9">
-        <v>4.111425969945</v>
+        <v>6.991919955849</v>
       </c>
       <c r="R9">
-        <v>37.002833729505</v>
+        <v>62.927279602641</v>
       </c>
       <c r="S9">
-        <v>0.001122163432737307</v>
+        <v>0.001528050688901705</v>
       </c>
       <c r="T9">
-        <v>0.001122163432737307</v>
+        <v>0.001528050688901705</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.303400333333333</v>
+        <v>4.102478333333333</v>
       </c>
       <c r="H10">
-        <v>3.910201</v>
+        <v>12.307435</v>
       </c>
       <c r="I10">
-        <v>0.0340255968107037</v>
+        <v>0.09901908995154843</v>
       </c>
       <c r="J10">
-        <v>0.0340255968107037</v>
+        <v>0.0990190899515484</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N10">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O10">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P10">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q10">
-        <v>22.58131084764111</v>
+        <v>31.09574510466278</v>
       </c>
       <c r="R10">
-        <v>203.23179762877</v>
+        <v>279.861705941965</v>
       </c>
       <c r="S10">
-        <v>0.006163292609847509</v>
+        <v>0.00679582647243308</v>
       </c>
       <c r="T10">
-        <v>0.006163292609847507</v>
+        <v>0.006795826472433078</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.303400333333333</v>
+        <v>4.102478333333333</v>
       </c>
       <c r="H11">
-        <v>3.910201</v>
+        <v>12.307435</v>
       </c>
       <c r="I11">
-        <v>0.0340255968107037</v>
+        <v>0.09901908995154843</v>
       </c>
       <c r="J11">
-        <v>0.0340255968107037</v>
+        <v>0.0990190899515484</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>19.771439</v>
       </c>
       <c r="O11">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P11">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q11">
-        <v>8.590033394359889</v>
+        <v>27.03730003877389</v>
       </c>
       <c r="R11">
-        <v>77.310300549239</v>
+        <v>243.335700348965</v>
       </c>
       <c r="S11">
-        <v>0.002344544552573313</v>
+        <v>0.005908872700370308</v>
       </c>
       <c r="T11">
-        <v>0.002344544552573312</v>
+        <v>0.005908872700370307</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.303400333333333</v>
+        <v>4.102478333333333</v>
       </c>
       <c r="H12">
-        <v>3.910201</v>
+        <v>12.307435</v>
       </c>
       <c r="I12">
-        <v>0.0340255968107037</v>
+        <v>0.09901908995154843</v>
       </c>
       <c r="J12">
-        <v>0.0340255968107037</v>
+        <v>0.0990190899515484</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N12">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O12">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P12">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q12">
-        <v>93.34802731488189</v>
+        <v>394.1740237424149</v>
       </c>
       <c r="R12">
-        <v>840.132245833937</v>
+        <v>3547.566213681734</v>
       </c>
       <c r="S12">
-        <v>0.02547820234066506</v>
+        <v>0.08614484895853144</v>
       </c>
       <c r="T12">
-        <v>0.02547820234066505</v>
+        <v>0.08614484895853143</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.303400333333333</v>
+        <v>4.102478333333333</v>
       </c>
       <c r="H13">
-        <v>3.910201</v>
+        <v>12.307435</v>
       </c>
       <c r="I13">
-        <v>0.0340255968107037</v>
+        <v>0.09901908995154843</v>
       </c>
       <c r="J13">
-        <v>0.0340255968107037</v>
+        <v>0.0990190899515484</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N13">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O13">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P13">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q13">
-        <v>0.144931600065</v>
+        <v>0.775774550355</v>
       </c>
       <c r="R13">
-        <v>1.304384400585</v>
+        <v>6.981970953195</v>
       </c>
       <c r="S13">
-        <v>3.955730761783036E-05</v>
+        <v>0.0001695418202135907</v>
       </c>
       <c r="T13">
-        <v>3.955730761783035E-05</v>
+        <v>0.0001695418202135906</v>
       </c>
     </row>
   </sheetData>
